--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MateiColdea\Documents\UiPath\fwf-api-animal-poc-dispatcher\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MateiColdea\Documents\UiPath\MateiColdea-fwf-api-animal-poc-dispatcher\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1E38E1-CBBC-45C4-88DE-82DB260D9653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7434328-E976-4CA9-9E9B-CFDBA34DF8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -98,86 +98,149 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction succesful.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with business exception.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with application exception.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Calling Get Transaction Data.</t>
+  </si>
+  <si>
+    <t>OrchestratorAssetFolder</t>
+  </si>
+  <si>
+    <t>OrchestratorQueueFolder</t>
+  </si>
+  <si>
+    <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
+  </si>
+  <si>
+    <t>MaxConsecutiveSystemExceptions</t>
+  </si>
+  <si>
+    <t>ExceptionMessage_ConsecutiveErrors</t>
+  </si>
+  <si>
+    <t>RetryNumberGetTransactionItem</t>
+  </si>
+  <si>
+    <t>RetryNumberSetTransactionStatus</t>
+  </si>
+  <si>
+    <t>Error message in case MaxConsecutiveSystemExceptions number is reached.</t>
+  </si>
+  <si>
+    <t>The number of times Get Transaction Item activity is retried in case of an exception. Must be an integer &gt;= 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of times Set transaction status activity is retried in case of an exception. Must be an integer &gt;= 1. </t>
+  </si>
+  <si>
+    <t>ShouldMarkJobAsFaulted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of consecutive system exceptions allowed. If MaxConsecutiveSystemExceptions is reached, the job is stopped. To disable this feature, set the value to 0. </t>
+  </si>
+  <si>
+    <t>Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
+  </si>
+  <si>
+    <t>ApprovedEmails</t>
+  </si>
+  <si>
+    <t>OutputRepostHeaders</t>
+  </si>
+  <si>
+    <t>Nume_Coleg;Animal;Status</t>
+  </si>
+  <si>
+    <t>BRE1_EmailSubject</t>
+  </si>
+  <si>
+    <t>Wrong sender</t>
+  </si>
+  <si>
+    <t>patricia.ciortin@fwfcompany.com;calin.gandila@fwfcompany.com;diana.sacacian@fwfcompany.com;tudor.cimpean@fwfcompany.com;matei.coldea@fwfcompany.com</t>
+  </si>
+  <si>
+    <t>PathToSaveFile</t>
+  </si>
+  <si>
+    <t>Data\Temp</t>
+  </si>
+  <si>
+    <t>FilePath</t>
+  </si>
+  <si>
+    <t>Data\Temp\Colegi (1).xlsx</t>
+  </si>
+  <si>
+    <t>WorkbookSheetName</t>
+  </si>
+  <si>
+    <t>Sheet1</t>
+  </si>
+  <si>
+    <t>POC API Animal</t>
+  </si>
+  <si>
+    <t>Animal Queue</t>
+  </si>
+  <si>
     <t>OrchestratorQueueName</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction succesful.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with business exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with application exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Calling Get Transaction Data.</t>
-  </si>
-  <si>
-    <t>OrchestratorAssetFolder</t>
-  </si>
-  <si>
-    <t>OrchestratorQueueFolder</t>
-  </si>
-  <si>
-    <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
-  </si>
-  <si>
-    <t>MaxConsecutiveSystemExceptions</t>
-  </si>
-  <si>
-    <t>ExceptionMessage_ConsecutiveErrors</t>
-  </si>
-  <si>
-    <t>RetryNumberGetTransactionItem</t>
-  </si>
-  <si>
-    <t>RetryNumberSetTransactionStatus</t>
-  </si>
-  <si>
-    <t>Error message in case MaxConsecutiveSystemExceptions number is reached.</t>
-  </si>
-  <si>
-    <t>The number of times Get Transaction Item activity is retried in case of an exception. Must be an integer &gt;= 1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of times Set transaction status activity is retried in case of an exception. Must be an integer &gt;= 1. </t>
-  </si>
-  <si>
-    <t>ShouldMarkJobAsFaulted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of consecutive system exceptions allowed. If MaxConsecutiveSystemExceptions is reached, the job is stopped. To disable this feature, set the value to 0. </t>
-  </si>
-  <si>
-    <t>Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
-  </si>
-  <si>
-    <t>ProcessABCQueue</t>
-  </si>
-  <si>
-    <t>patricia.ciortin@fwfcompany.com;calin.gandila@fwfcompany.com;diana.sacacian@fwfcompany.com;tudor.cimpean@fwfcompany.com</t>
-  </si>
-  <si>
-    <t>ApprovedEmails</t>
-  </si>
-  <si>
-    <t>OutputRepostHeaders</t>
-  </si>
-  <si>
-    <t>Nume_Coleg;Animal;Status</t>
-  </si>
-  <si>
-    <t>BRE1_EmailSubject</t>
-  </si>
-  <si>
-    <t>Wrong sender</t>
+  </si>
+  <si>
+    <t>BRE1_EmailTo</t>
+  </si>
+  <si>
+    <t>patricia.ciortin@fwfcompany.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Salut, 
+Am intalnit urmatoarea eroare:  
+Nu am depistat un mail trimis de senderii agreati. </t>
+  </si>
+  <si>
+    <t>BRE1_EmailBody</t>
+  </si>
+  <si>
+    <t>BRE1_EmailCC</t>
+  </si>
+  <si>
+    <t>calin.gandila@fwfcompany.com;diana.sacacian@fwfcompany.com;tudor.cimpean@fwfcompany.com</t>
+  </si>
+  <si>
+    <t>BRE2_EmailSubject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incorrect Attachment </t>
+  </si>
+  <si>
+    <t>BRE2_EmailBody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salut, 
+Am intalnit urmatoarea eroare: 
+Atasamentul nu este corect sau nu exista. </t>
+  </si>
+  <si>
+    <t>BRE2_EmailTo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patricia.ciortin@fwfcompany.com </t>
+  </si>
+  <si>
+    <t>BRE2_EmailCC</t>
   </si>
 </sst>
 </file>
@@ -236,7 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -247,6 +310,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -564,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -612,10 +676,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -623,11 +687,13 @@
     </row>
     <row r="3" spans="1:26" ht="43.5">
       <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -646,50 +712,120 @@
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" t="s">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
         <v>49</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1659,10 +1795,11 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{24B4CEA2-F543-4B93-95C3-CC68C267DFEC}"/>
+    <hyperlink ref="B29" r:id="rId1" xr:uid="{17454A72-7721-49D5-A6C5-87333A654C1F}"/>
+    <hyperlink ref="B30" r:id="rId2" xr:uid="{C9DFAC01-5357-4E68-BC71-E6F988AA82F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1724,18 +1861,18 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="43.5">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1759,7 +1896,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1781,7 +1918,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1792,7 +1929,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -1803,53 +1940,53 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:3" ht="29">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2851,7 +2988,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MateiColdea\Documents\UiPath\MateiColdea-fwf-api-animal-poc-dispatcher\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7434328-E976-4CA9-9E9B-CFDBA34DF8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57325B43-B438-40B4-A4F3-2611B8AAF20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-13170" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -247,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -271,12 +271,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -295,11 +289,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -309,11 +302,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -628,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="B30 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -770,7 +761,7 @@
       <c r="A22" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" t="s">
         <v>59</v>
       </c>
     </row>
@@ -786,7 +777,7 @@
       <c r="A24" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1794,12 +1785,8 @@
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="B29" r:id="rId1" xr:uid="{17454A72-7721-49D5-A6C5-87333A654C1F}"/>
-    <hyperlink ref="B30" r:id="rId2" xr:uid="{C9DFAC01-5357-4E68-BC71-E6F988AA82F8}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MateiColdea\Documents\UiPath\MateiColdea-fwf-api-animal-poc-dispatcher\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57325B43-B438-40B4-A4F3-2611B8AAF20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BFCDB8-D2EA-49E0-998E-25CD7B9271A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-13170" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
   <si>
     <t>Name</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>logF_BusinessProcessName</t>
-  </si>
-  <si>
-    <t>Framework</t>
   </si>
   <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
@@ -241,6 +238,21 @@
   </si>
   <si>
     <t>BRE2_EmailCC</t>
+  </si>
+  <si>
+    <t>fwf-api-animal-dispatcher</t>
+  </si>
+  <si>
+    <t>BRE1_Message</t>
+  </si>
+  <si>
+    <t>Sender is not accepted</t>
+  </si>
+  <si>
+    <t>Attachment not found</t>
+  </si>
+  <si>
+    <t>BRE2_Message</t>
   </si>
 </sst>
 </file>
@@ -292,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -302,7 +314,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="B30 F1"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -667,24 +678,24 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="43.5">
       <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -693,29 +704,29 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
         <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -724,26 +735,26 @@
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
         <v>49</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
         <v>51</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
         <v>53</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1"/>
@@ -751,88 +762,102 @@
     <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
         <v>46</v>
-      </c>
-      <c r="B21" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
         <v>58</v>
-      </c>
-      <c r="B22" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
         <v>62</v>
-      </c>
-      <c r="B24" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="27" spans="1:2" ht="14.25" customHeight="1">
       <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
         <v>64</v>
-      </c>
-      <c r="B27" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.25" customHeight="1">
       <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
         <v>68</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -1848,18 +1873,18 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="43.5">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1883,7 +1908,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1905,7 +1930,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1916,7 +1941,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -1927,53 +1952,53 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:3" ht="29">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2975,7 +3000,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MateiColdea\Documents\UiPath\MateiColdea-fwf-api-animal-poc-dispatcher\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BFCDB8-D2EA-49E0-998E-25CD7B9271A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4125750-F404-45A7-A14D-CBB34263912D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-13170" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -253,6 +253,12 @@
   </si>
   <si>
     <t>BRE2_Message</t>
+  </si>
+  <si>
+    <t>BRE3_Message</t>
+  </si>
+  <si>
+    <t>Invalid Animals</t>
   </si>
 </sst>
 </file>
@@ -630,7 +636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -844,7 +850,14 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+    </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="37" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
